--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -731,8 +735,8 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -740,13 +744,16 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>400</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -769,13 +776,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>1600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +963,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,28 +993,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,13 +1041,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1028,8 +1062,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,19 +1071,22 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,28 +1135,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,19 +1167,22 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1231,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1263,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,13 +1423,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1376,8 +1446,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1455,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1519,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1551,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,28 +1618,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,17 +1680,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,16 +1744,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1677,28 +1776,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
         <v>6100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,37 +1840,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,8 +1886,8 @@
       <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,8 +1982,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,28 +2032,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2005,16 +2139,16 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2022,28 +2156,31 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2051,37 +2188,43 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,37 +2252,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>900</v>
+      </c>
+      <c r="E72" s="3">
         <v>100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-400</v>
       </c>
       <c r="F72" s="3">
         <v>-400</v>
       </c>
       <c r="G72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>4800</v>
       </c>
       <c r="F76" s="3">
         <v>4800</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2746,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,8 +3021,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2816,19 +3033,19 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,23 +3337,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,20 +3369,23 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -738,8 +741,8 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -747,17 +750,20 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,17 +785,20 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +989,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,31 +1022,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,17 +1074,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1065,8 +1098,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1074,22 +1107,25 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,31 +1177,34 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,22 +1212,25 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1282,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1317,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>-100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,17 +1492,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1449,8 +1518,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1458,31 +1527,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>-100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1597,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>-100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,45 +1632,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,31 +1704,32 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1651,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,20 +1772,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,19 +1842,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1779,31 +1877,34 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,16 +1947,19 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="E48" s="3">
+        <v>2800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1869,19 +1976,22 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1889,8 +1999,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2017,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,13 +2087,16 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1985,8 +2104,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,31 +2157,34 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,31 +2224,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2127,8 +2257,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2142,13 +2275,13 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2159,72 +2292,81 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,17 +2397,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,14 +2426,17 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2537,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2727,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-400</v>
       </c>
       <c r="G72" s="3">
         <v>-400</v>
       </c>
       <c r="H72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2867,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4800</v>
       </c>
       <c r="G76" s="3">
         <v>4800</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,68 +2937,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>-100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3237,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3198,8 +3427,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,26 +3582,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,23 +3617,26 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3404,36 +3652,42 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,125 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,23 +802,29 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +843,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +864,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +901,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +942,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +983,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1042,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,13 +1141,15 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1090,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1101,37 +1169,43 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1219,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,8 +1260,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1189,54 +1275,60 @@
         <v>2000</v>
       </c>
       <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1342,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
       </c>
       <c r="F26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
       </c>
       <c r="F27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>700</v>
+      </c>
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,13 +1629,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1510,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1521,52 +1661,64 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
       </c>
       <c r="F33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>700</v>
+      </c>
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
       </c>
       <c r="F35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>700</v>
+      </c>
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,43 +1877,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,26 +1955,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F43" s="3">
         <v>6000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1996,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,25 +2037,31 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1880,43 +2078,55 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F46" s="3">
         <v>10700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1924,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1950,23 +2160,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,14 +2195,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1994,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2242,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,28 +2324,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,43 +2406,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F54" s="3">
         <v>13500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,19 +2485,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2251,17 +2513,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2277,11 +2545,11 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2295,78 +2563,96 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1800</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,23 +2686,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,14 +2721,20 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,43 +2850,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,43 +3072,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F72" s="3">
         <v>2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,43 +3236,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F76" s="3">
         <v>8900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>
       </c>
       <c r="F81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>700</v>
+      </c>
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3426,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,20 +3439,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3065,8 +3463,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3730,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3767,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3849,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3430,8 +3890,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,32 +4071,38 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,29 +4112,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,39 +4153,51 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -758,8 +762,8 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -767,26 +771,29 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,26 +815,29 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,40 +1070,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="E17" s="3">
         <v>2000</v>
       </c>
       <c r="F17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>100</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1085,40 +1112,43 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>-100</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,14 +1189,14 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1209,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,31 +1218,34 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,40 +1306,43 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>-100</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1307,31 +1350,34 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,40 +1438,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>-100</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1430,40 +1482,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>-100</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,14 +1717,14 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1667,8 +1737,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,40 +1746,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>-100</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,40 +1834,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>-100</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1799,54 +1878,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,40 +1965,41 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,28 +2139,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2084,40 +2183,43 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>12900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2125,20 +2227,23 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2151,8 +2256,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2166,25 +2271,28 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>2800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2201,14 +2309,17 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2222,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2230,8 +2341,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2344,8 +2464,8 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2353,8 +2473,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,40 +2535,43 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E54" s="3">
         <v>15700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,8 +2617,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2496,13 +2627,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2519,8 +2650,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2551,8 +2685,8 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2569,90 +2703,99 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,26 +2835,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,14 +2873,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-400</v>
       </c>
       <c r="J72" s="3">
         <v>-400</v>
       </c>
       <c r="K72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E76" s="3">
         <v>11500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4800</v>
       </c>
       <c r="J76" s="3">
         <v>4800</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,86 +3513,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>-100</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,8 +3638,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3454,8 +3653,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,40 +3888,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,31 +3952,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,31 +4082,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4089,23 +4335,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,32 +4364,35 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -765,8 +768,8 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -774,29 +777,32 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,29 +824,32 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,43 +1096,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2000</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
       </c>
       <c r="G17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>100</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1115,43 +1141,46 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>-100</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1159,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1192,14 +1225,14 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1212,8 +1245,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,34 +1254,37 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
@@ -1265,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,43 +1348,46 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>-100</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1353,34 +1395,37 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,43 +1489,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>-100</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1485,43 +1536,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>-100</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1529,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1720,14 +1789,14 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1740,8 +1809,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,43 +1818,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>-100</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,43 +1912,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>-100</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1881,57 +1959,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,43 +2051,44 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2010,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,32 +2143,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
-        <v>6000</v>
-      </c>
       <c r="H43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,31 +2237,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2186,43 +2284,46 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
-        <v>10700</v>
-      </c>
       <c r="H46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I46" s="3">
         <v>8300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2230,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2239,16 +2343,16 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2259,8 +2363,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2274,28 +2378,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2700</v>
       </c>
       <c r="F48" s="3">
         <v>2700</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>2800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2312,14 +2419,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2344,8 +2454,8 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2467,8 +2586,8 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2476,8 +2595,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,43 +2660,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E54" s="3">
         <v>17700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
@@ -2582,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,25 +2747,26 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2653,8 +2783,8 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2662,13 +2792,16 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2688,8 +2821,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2706,96 +2839,105 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,29 +2980,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2876,14 +3021,17 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3168,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3422,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E72" s="3">
         <v>6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-400</v>
       </c>
       <c r="K72" s="3">
         <v>-400</v>
       </c>
       <c r="L72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3610,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E76" s="3">
         <v>12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4800</v>
       </c>
       <c r="K76" s="3">
         <v>4800</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,92 +3704,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>-100</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3609,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3641,8 +3839,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3656,8 +3854,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3671,8 +3869,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,43 +4104,46 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -3935,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,16 +4172,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3979,8 +4199,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3997,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,16 +4311,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -4111,8 +4340,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4129,8 +4358,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,13 +4565,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4338,23 +4583,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,35 +4612,38 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4411,48 +4659,54 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,164 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,35 +841,41 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +894,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +919,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +968,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1021,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1074,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1149,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1900</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F18" s="3">
         <v>1900</v>
       </c>
       <c r="G18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,13 +1276,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1228,7 +1296,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1237,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1248,49 +1316,55 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
@@ -1304,8 +1378,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,87 +1431,99 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>800</v>
       </c>
       <c r="H23" s="3">
         <v>2000</v>
       </c>
       <c r="I23" s="3">
+        <v>800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1537,14 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1400</v>
       </c>
       <c r="I26" s="3">
         <v>700</v>
       </c>
       <c r="J26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>700</v>
+      </c>
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1400</v>
       </c>
       <c r="I27" s="3">
         <v>700</v>
       </c>
       <c r="J27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>700</v>
+      </c>
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1749,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,13 +1908,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1792,7 +1932,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1801,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1812,64 +1952,76 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1400</v>
       </c>
       <c r="I33" s="3">
         <v>700</v>
       </c>
       <c r="J33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>700</v>
+      </c>
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1400</v>
       </c>
       <c r="I35" s="3">
         <v>700</v>
       </c>
       <c r="J35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>700</v>
+      </c>
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,55 +2224,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,38 +2326,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2379,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,37 +2432,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2287,55 +2485,67 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F46" s="3">
         <v>16400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2346,31 +2556,31 @@
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2381,35 +2591,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="F48" s="3">
         <v>2700</v>
       </c>
       <c r="G48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,14 +2638,20 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2446,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2457,11 +2679,11 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2475,8 +2697,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2803,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2589,20 +2829,20 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2616,8 +2856,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2909,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F54" s="3">
         <v>19500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,31 +3008,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2786,28 +3048,34 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2824,11 +3092,11 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2842,102 +3110,120 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1800</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2000</v>
       </c>
       <c r="G60" s="3">
         <v>2600</v>
       </c>
       <c r="H60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,35 +3269,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3024,14 +3316,20 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,8 +3481,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3180,46 +3496,52 @@
         <v>4900</v>
       </c>
       <c r="E66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,55 +3767,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F72" s="3">
         <v>7400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,55 +3979,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F76" s="3">
         <v>14500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1400</v>
       </c>
       <c r="I81" s="3">
         <v>700</v>
       </c>
       <c r="J81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>700</v>
+      </c>
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4221,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3842,11 +4240,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3857,11 +4255,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3872,8 +4270,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,8 +4535,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4116,46 +4550,52 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>-1800</v>
+        <v>7400</v>
       </c>
       <c r="F89" s="3">
-        <v>1000</v>
+        <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-2000</v>
+        <v>-2300</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,22 +4613,24 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -4202,11 +4644,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4220,8 +4662,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,28 +4768,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4343,11 +4803,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4361,8 +4821,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,44 +5054,50 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,41 +5107,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4662,51 +5160,63 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -785,8 +789,8 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -794,38 +798,41 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,38 +854,41 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,52 +1177,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2000</v>
       </c>
       <c r="I17" s="3">
         <v>2000</v>
       </c>
       <c r="J17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>100</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1204,52 +1231,55 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>-100</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,16 +1311,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1302,14 +1336,14 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1356,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,43 +1365,46 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,52 +1477,55 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>-100</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1490,43 +1533,46 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>-100</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1649,52 +1701,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>-100</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,16 +1981,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1938,14 +2008,14 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1958,8 +2028,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,52 +2037,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>-100</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>-100</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2126,66 +2205,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,52 +2312,53 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,40 +2534,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2491,52 +2590,55 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E46" s="3">
         <v>15600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
@@ -2544,13 +2646,16 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -2562,17 +2667,17 @@
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2687,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2597,37 +2702,40 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2700</v>
       </c>
       <c r="I48" s="3">
         <v>2700</v>
       </c>
       <c r="J48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>2800</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2644,14 +2752,17 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2674,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2685,8 +2796,8 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,34 +2926,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2844,8 +2964,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,52 +3038,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E54" s="3">
         <v>18900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,34 +3140,35 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3185,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,11 +3208,11 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3098,8 +3232,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -3116,114 +3250,123 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2900</v>
       </c>
       <c r="F59" s="3">
         <v>2900</v>
       </c>
       <c r="G59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,38 +3418,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3322,14 +3468,17 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,13 +3642,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="E66" s="3">
         <v>4900</v>
@@ -3502,46 +3660,49 @@
         <v>4900</v>
       </c>
       <c r="G66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
         <v>7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-400</v>
       </c>
       <c r="N72" s="3">
         <v>-400</v>
       </c>
       <c r="O72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>4800</v>
       </c>
       <c r="N76" s="3">
         <v>4800</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,110 +4280,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>-100</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4246,8 +4445,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -4261,8 +4460,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,52 +4755,55 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-2300</v>
+        <v>-1300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,25 +4835,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -4650,8 +4871,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,31 +5001,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4809,8 +5039,8 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,23 +5303,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5084,23 +5330,23 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>6500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,44 +5359,47 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -4845,7 +4845,7 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-700</v>
@@ -4856,11 +4856,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WETG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>WETG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,203 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>800</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,47 +877,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1400</v>
       </c>
-      <c r="E10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +942,17 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +973,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1032,17 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1097,17 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1162,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1227,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1255,141 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G17" s="3">
         <v>14400</v>
       </c>
-      <c r="E17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,25 +1410,28 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1339,19 +1440,19 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1359,61 +1460,70 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-8800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
@@ -1424,8 +1534,17 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,108 +1599,126 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1729,17 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1794,147 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>700</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
       </c>
       <c r="L26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>700</v>
+      </c>
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>700</v>
       </c>
       <c r="K27" s="3">
         <v>1400</v>
       </c>
       <c r="L27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>700</v>
+      </c>
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1989,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1825,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-2700</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1872,8 +2054,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2119,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,25 +2184,34 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2011,19 +2220,19 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2031,73 +2240,91 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>600</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J33" s="3">
         <v>1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>700</v>
       </c>
       <c r="K33" s="3">
         <v>1400</v>
       </c>
       <c r="L33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>700</v>
+      </c>
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2379,152 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>600</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J35" s="3">
         <v>1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>700</v>
       </c>
       <c r="K35" s="3">
         <v>1400</v>
       </c>
       <c r="L35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>700</v>
+      </c>
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2545,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2570,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G41" s="3">
         <v>20300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>6600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,50 +2694,59 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G43" s="3">
         <v>6800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>4800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>7800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2759,17 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,49 +2824,58 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2593,64 +2889,82 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>34200</v>
+      </c>
+      <c r="G46" s="3">
         <v>44700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>16500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>16400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>12900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>11400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>10400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>8300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>6100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2658,46 +2972,46 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
+        <v>300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2705,47 +3019,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2700</v>
       </c>
       <c r="J48" s="3">
         <v>2700</v>
       </c>
       <c r="K48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,14 +3078,23 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2788,25 +3120,25 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3149,17 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3214,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,34 +3279,43 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2964,17 +3323,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -2985,8 +3344,17 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3409,82 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>46200</v>
+      </c>
+      <c r="G54" s="3">
         <v>46100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>18900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>20100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>19500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>17700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>15700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>14400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>13500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>11200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>6100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3505,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,43 +3530,46 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -3188,17 +3580,26 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3211,17 +3612,17 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3235,14 +3636,14 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3253,120 +3654,147 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,47 +3849,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,14 +3908,23 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3979,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +4044,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +4109,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4200</v>
       </c>
       <c r="J66" s="3">
         <v>4900</v>
       </c>
       <c r="K66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4205,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4264,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4329,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4394,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4459,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>7400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>4800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4589,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4654,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4719,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G76" s="3">
         <v>42000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>13900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>14500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>11500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>9500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>8900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4849,152 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>600</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J81" s="3">
         <v>1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>700</v>
       </c>
       <c r="K81" s="3">
         <v>1400</v>
       </c>
       <c r="L81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>700</v>
+      </c>
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,19 +5015,22 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4448,14 +5044,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4463,14 +5059,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4478,8 +5074,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +5139,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +5204,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5269,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5334,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +5399,82 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,52 +5495,55 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4892,8 +5554,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5619,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,52 +5684,61 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5060,8 +5749,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5780,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5839,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5904,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5969,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,109 +6034,127 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G100" s="3">
         <v>38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>6500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,60 +6164,78 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
